--- a/过程类/详细任务安排.xlsx
+++ b/过程类/详细任务安排.xlsx
@@ -181,11 +181,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,13 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -208,15 +201,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +279,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,9 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,10 +302,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,54 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -323,29 +331,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +347,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,181 +365,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,8 +556,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,11 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +612,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,35 +644,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,28 +655,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,122 +685,122 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,13 +810,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7777777777778" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1262,7 +1258,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1334,9 +1330,9 @@
       <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
       <c r="AD2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1426,9 +1422,9 @@
       <c r="Z3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
         <v>30</v>
@@ -1505,7 +1501,7 @@
       <c r="T4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -1523,9 +1519,9 @@
       <c r="Z4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
       <c r="AD4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1562,7 +1558,7 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" t="s">
@@ -1614,9 +1610,9 @@
       <c r="Z5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
       <c r="AD5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1671,22 +1667,22 @@
         <v>49</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -1704,9 +1700,9 @@
       <c r="Z6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
       <c r="AD6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1716,13 +1712,13 @@
       <c r="AF6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AG6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AH6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AI6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AJ6" s="1"/>

--- a/过程类/详细任务安排.xlsx
+++ b/过程类/详细任务安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>邵鑫</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>PPT美化</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
 </sst>
 </file>
@@ -180,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,6 +199,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +219,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,44 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -265,7 +276,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,7 +313,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -288,50 +335,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -365,175 +368,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,36 +575,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -612,17 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +606,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -655,142 +658,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +815,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -869,6 +875,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <mruColors>
+      <color rgb="00CF3A34"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1131,13 +1142,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7777777777778" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="30.7777777777778" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
     <col min="2" max="16384" width="30.7777777777778" customWidth="1"/>
@@ -1330,9 +1341,9 @@
       <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
       <c r="AD2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,9 +1433,9 @@
       <c r="Z3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
         <v>30</v>
@@ -1519,9 +1530,9 @@
       <c r="Z4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
       <c r="AD4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1610,9 +1621,9 @@
       <c r="Z5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
       <c r="AD5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1700,9 +1711,9 @@
       <c r="Z6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
       <c r="AD6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1723,6 +1734,12 @@
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/过程类/详细任务安排.xlsx
+++ b/过程类/详细任务安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>邵鑫</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>《s4演示视频》</t>
-  </si>
-  <si>
-    <t>《s5演示视频》</t>
-  </si>
-  <si>
-    <t>《s6演示视频》</t>
   </si>
   <si>
     <t>章奔奔</t>
@@ -183,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,14 +192,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +258,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -227,76 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -305,41 +328,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -368,13 +362,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +416,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,151 +476,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,8 +553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +564,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,21 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -611,6 +620,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,177 +647,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7777777777778" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1447,17 +1441,17 @@
         <v>31</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -1471,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
@@ -1480,67 +1474,67 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="V4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
+      <c r="W4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -1550,7 +1544,7 @@
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -1564,74 +1558,74 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -1641,96 +1635,96 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1738,7 +1732,7 @@
     <row r="8" spans="2:3">
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/过程类/详细任务安排.xlsx
+++ b/过程类/详细任务安排.xlsx
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -206,7 +206,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,28 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -252,90 +329,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +350,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,13 +368,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,151 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +569,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,36 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -623,181 +653,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,10 +816,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7777777777778" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1269,13 +1278,13 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1335,9 +1344,9 @@
       <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
       <c r="AD2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,16 +1373,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1427,9 +1436,9 @@
       <c r="Z3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
         <v>30</v>
@@ -1454,14 +1463,14 @@
         <v>32</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1524,9 +1533,9 @@
       <c r="Z4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
       <c r="AD4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1547,14 +1556,14 @@
         <v>39</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1615,9 +1624,9 @@
       <c r="Z5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1638,19 +1647,19 @@
         <v>45</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1705,9 +1714,9 @@
       <c r="Z6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
       <c r="AD6" s="1" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1739,7 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>51</v>
       </c>
